--- a/data_quarter/zb/工业/主要工业产品的销售与库存/铁矿石原矿.xlsx
+++ b/data_quarter/zb/工业/主要工业产品的销售与库存/铁矿石原矿.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,11 +454,21 @@
           <t>铁矿石原矿销售量_累计值</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>铁矿石原矿产销率</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>铁矿石原矿销售量</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2016年第一季度</t>
+          <t>2016年A</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -473,49 +483,67 @@
       <c r="E2" t="n">
         <v>8575.014450000001</v>
       </c>
+      <c r="F2" t="n">
+        <v>102.9</v>
+      </c>
+      <c r="G2" t="n">
+        <v>8575.014450000001</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2016年第三季度</t>
+          <t>2016年B</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>98.2</v>
+        <v>99.5</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="D3" t="n">
-        <v>7.7</v>
+        <v>-1.3</v>
       </c>
       <c r="E3" t="n">
-        <v>26558.06353</v>
+        <v>17511.69223</v>
+      </c>
+      <c r="F3" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="G3" t="n">
+        <v>8936.67778</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2016年第二季度</t>
+          <t>2016年C</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.5</v>
+        <v>98.2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.3</v>
+        <v>7.7</v>
       </c>
       <c r="E4" t="n">
-        <v>17511.69223</v>
+        <v>26558.06353</v>
+      </c>
+      <c r="F4" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>9046.371299999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2016年第四季度</t>
+          <t>2016年D</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -530,11 +558,17 @@
       <c r="E5" t="n">
         <v>34257.71599</v>
       </c>
+      <c r="F5" t="n">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7699.652459999998</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2017年第一季度</t>
+          <t>2017年A</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -549,49 +583,67 @@
       <c r="E6" t="n">
         <v>7315.49409</v>
       </c>
+      <c r="F6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7315.49409</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2017年第三季度</t>
+          <t>2017年B</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>98.2</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>-1</v>
+        <v>-1.4</v>
       </c>
       <c r="D7" t="n">
-        <v>15.9</v>
+        <v>4.8</v>
       </c>
       <c r="E7" t="n">
-        <v>21421.19028</v>
+        <v>15016.82782</v>
+      </c>
+      <c r="F7" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="G7" t="n">
+        <v>7701.33373</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2017年第二季度</t>
+          <t>2017年C</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>98.90000000000001</v>
+        <v>98.2</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.4</v>
+        <v>-1</v>
       </c>
       <c r="D8" t="n">
-        <v>4.8</v>
+        <v>15.9</v>
       </c>
       <c r="E8" t="n">
-        <v>15016.82782</v>
+        <v>21421.19028</v>
+      </c>
+      <c r="F8" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="G8" t="n">
+        <v>6404.362459999998</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2017年第四季度</t>
+          <t>2017年D</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -606,11 +658,17 @@
       <c r="E9" t="n">
         <v>25919.49029</v>
       </c>
+      <c r="F9" t="n">
+        <v>1.200000000000003</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4498.300010000003</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2018年第一季度</t>
+          <t>2018年A</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -625,49 +683,67 @@
       <c r="E10" t="n">
         <v>5188.49503</v>
       </c>
+      <c r="F10" t="n">
+        <v>3.799999999999997</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5188.49503</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2018年第三季度</t>
+          <t>2018年B</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>101.8</v>
+        <v>102.6</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1</v>
+        <v>1.2</v>
       </c>
       <c r="D11" t="n">
-        <v>-11.6</v>
+        <v>-14.2</v>
       </c>
       <c r="E11" t="n">
-        <v>15506.47142</v>
+        <v>10474.47778</v>
+      </c>
+      <c r="F11" t="n">
+        <v>102.6</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5285.982749999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2018年第二季度</t>
+          <t>2018年C</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>102.6</v>
+        <v>101.8</v>
       </c>
       <c r="C12" t="n">
-        <v>1.2</v>
+        <v>0.1</v>
       </c>
       <c r="D12" t="n">
-        <v>-14.2</v>
+        <v>-11.6</v>
       </c>
       <c r="E12" t="n">
-        <v>10474.47778</v>
+        <v>15506.47142</v>
+      </c>
+      <c r="F12" t="n">
+        <v>101.8</v>
+      </c>
+      <c r="G12" t="n">
+        <v>5031.993640000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2018年第四季度</t>
+          <t>2018年D</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -682,11 +758,17 @@
       <c r="E13" t="n">
         <v>20470.31449</v>
       </c>
+      <c r="F13" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4963.843070000001</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2019年第一季度</t>
+          <t>2019年A</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -701,49 +783,67 @@
       <c r="E14" t="n">
         <v>4984.75839</v>
       </c>
+      <c r="F14" t="n">
+        <v>0.6000000000000085</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4984.75839</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2019年第三季度</t>
+          <t>2019年B</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>100.9</v>
+        <v>99.7</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>-0.9</v>
       </c>
       <c r="D15" t="n">
-        <v>-10.3</v>
+        <v>0.9</v>
       </c>
       <c r="E15" t="n">
-        <v>16193.36188</v>
+        <v>9865.95393</v>
+      </c>
+      <c r="F15" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="G15" t="n">
+        <v>4881.19554</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2019年第二季度</t>
+          <t>2019年C</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>99.7</v>
+        <v>100.9</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.9</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9</v>
+        <v>-10.3</v>
       </c>
       <c r="E16" t="n">
-        <v>9865.95393</v>
+        <v>16193.36188</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.200000000000003</v>
+      </c>
+      <c r="G16" t="n">
+        <v>6327.407950000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2019年第四季度</t>
+          <t>2019年D</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -757,6 +857,12 @@
       </c>
       <c r="E17" t="n">
         <v>22294.13986</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="G17" t="n">
+        <v>6100.777979999999</v>
       </c>
     </row>
   </sheetData>

--- a/data_quarter/zb/工业/主要工业产品的销售与库存/铁矿石原矿.xlsx
+++ b/data_quarter/zb/工业/主要工业产品的销售与库存/铁矿石原矿.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,16 +454,6 @@
           <t>铁矿石原矿销售量_累计值</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>铁矿石原矿产销率</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>铁矿石原矿销售量</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -483,61 +473,43 @@
       <c r="E2" t="n">
         <v>8575.014450000001</v>
       </c>
-      <c r="F2" t="n">
-        <v>102.9</v>
-      </c>
-      <c r="G2" t="n">
-        <v>8575.014450000001</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2016年B</t>
+          <t>2016年C</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>99.5</v>
+        <v>98.2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.3</v>
+        <v>7.7</v>
       </c>
       <c r="E3" t="n">
-        <v>17511.69223</v>
-      </c>
-      <c r="F3" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="G3" t="n">
-        <v>8936.67778</v>
+        <v>26558.06353</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2016年C</t>
+          <t>2016年B</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>98.2</v>
+        <v>99.5</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="D4" t="n">
-        <v>7.7</v>
+        <v>-1.3</v>
       </c>
       <c r="E4" t="n">
-        <v>26558.06353</v>
-      </c>
-      <c r="F4" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="G4" t="n">
-        <v>9046.371299999999</v>
+        <v>17511.69223</v>
       </c>
     </row>
     <row r="5">
@@ -558,12 +530,6 @@
       <c r="E5" t="n">
         <v>34257.71599</v>
       </c>
-      <c r="F5" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="G5" t="n">
-        <v>7699.652459999998</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -583,61 +549,43 @@
       <c r="E6" t="n">
         <v>7315.49409</v>
       </c>
-      <c r="F6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" t="n">
-        <v>7315.49409</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2017年B</t>
+          <t>2017年C</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>98.90000000000001</v>
+        <v>98.2</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.4</v>
+        <v>-1</v>
       </c>
       <c r="D7" t="n">
-        <v>4.8</v>
+        <v>15.9</v>
       </c>
       <c r="E7" t="n">
-        <v>15016.82782</v>
-      </c>
-      <c r="F7" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="G7" t="n">
-        <v>7701.33373</v>
+        <v>21421.19028</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2017年C</t>
+          <t>2017年B</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>98.2</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>-1</v>
+        <v>-1.4</v>
       </c>
       <c r="D8" t="n">
-        <v>15.9</v>
+        <v>4.8</v>
       </c>
       <c r="E8" t="n">
-        <v>21421.19028</v>
-      </c>
-      <c r="F8" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="G8" t="n">
-        <v>6404.362459999998</v>
+        <v>15016.82782</v>
       </c>
     </row>
     <row r="9">
@@ -658,12 +606,6 @@
       <c r="E9" t="n">
         <v>25919.49029</v>
       </c>
-      <c r="F9" t="n">
-        <v>1.200000000000003</v>
-      </c>
-      <c r="G9" t="n">
-        <v>4498.300010000003</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -683,61 +625,43 @@
       <c r="E10" t="n">
         <v>5188.49503</v>
       </c>
-      <c r="F10" t="n">
-        <v>3.799999999999997</v>
-      </c>
-      <c r="G10" t="n">
-        <v>5188.49503</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2018年B</t>
+          <t>2018年C</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>102.6</v>
+        <v>101.8</v>
       </c>
       <c r="C11" t="n">
-        <v>1.2</v>
+        <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>-14.2</v>
+        <v>-11.6</v>
       </c>
       <c r="E11" t="n">
-        <v>10474.47778</v>
-      </c>
-      <c r="F11" t="n">
-        <v>102.6</v>
-      </c>
-      <c r="G11" t="n">
-        <v>5285.982749999999</v>
+        <v>15506.47142</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2018年C</t>
+          <t>2018年B</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>101.8</v>
+        <v>102.6</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1</v>
+        <v>1.2</v>
       </c>
       <c r="D12" t="n">
-        <v>-11.6</v>
+        <v>-14.2</v>
       </c>
       <c r="E12" t="n">
-        <v>15506.47142</v>
-      </c>
-      <c r="F12" t="n">
-        <v>101.8</v>
-      </c>
-      <c r="G12" t="n">
-        <v>5031.993640000001</v>
+        <v>10474.47778</v>
       </c>
     </row>
     <row r="13">
@@ -758,12 +682,6 @@
       <c r="E13" t="n">
         <v>20470.31449</v>
       </c>
-      <c r="F13" t="n">
-        <v>101.3</v>
-      </c>
-      <c r="G13" t="n">
-        <v>4963.843070000001</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -783,61 +701,43 @@
       <c r="E14" t="n">
         <v>4984.75839</v>
       </c>
-      <c r="F14" t="n">
-        <v>0.6000000000000085</v>
-      </c>
-      <c r="G14" t="n">
-        <v>4984.75839</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2019年B</t>
+          <t>2019年C</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>99.7</v>
+        <v>100.9</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.9</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9</v>
+        <v>-10.3</v>
       </c>
       <c r="E15" t="n">
-        <v>9865.95393</v>
-      </c>
-      <c r="F15" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="G15" t="n">
-        <v>4881.19554</v>
+        <v>16193.36188</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2019年C</t>
+          <t>2019年B</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>100.9</v>
+        <v>99.7</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>-0.9</v>
       </c>
       <c r="D16" t="n">
-        <v>-10.3</v>
+        <v>0.9</v>
       </c>
       <c r="E16" t="n">
-        <v>16193.36188</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1.200000000000003</v>
-      </c>
-      <c r="G16" t="n">
-        <v>6327.407950000001</v>
+        <v>9865.95393</v>
       </c>
     </row>
     <row r="17">
@@ -857,12 +757,6 @@
       </c>
       <c r="E17" t="n">
         <v>22294.13986</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="G17" t="n">
-        <v>6100.777979999999</v>
       </c>
     </row>
   </sheetData>
